--- a/WebRoot/page/bidregister.xlsx
+++ b/WebRoot/page/bidregister.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Homework\sh_prj\tbps\WebRoot\page\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19680" windowHeight="2970"/>
   </bookViews>
@@ -65,14 +60,8 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <b/>
-        <sz val="16"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
       <t xml:space="preserve">          
-(招标编号：           )</t>
+(招标编号： )</t>
     </r>
     <r>
       <rPr>
@@ -84,6 +73,7 @@
       </rPr>
       <t>报名登记表</t>
     </r>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -452,6 +442,9 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -476,12 +469,9 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 2" xfId="1"/>
     <cellStyle name="常规 3" xfId="2"/>
   </cellStyles>
@@ -499,7 +489,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -541,7 +531,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -576,7 +566,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -788,7 +778,7 @@
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:D1"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -800,28 +790,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="51.75" customHeight="1">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
     </row>
     <row r="2" spans="1:6" ht="27" customHeight="1" thickBot="1">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
     </row>
     <row r="3" spans="1:6" ht="46.5" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="23"/>
-      <c r="C3" s="23"/>
-      <c r="D3" s="24"/>
+      <c r="B3" s="24"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="25"/>
     </row>
     <row r="4" spans="1:6" ht="52.5" customHeight="1">
       <c r="A4" s="2" t="s">
@@ -866,12 +856,12 @@
       <c r="D7" s="9"/>
     </row>
     <row r="8" spans="1:6" ht="30.75" customHeight="1">
-      <c r="A8" s="25" t="s">
+      <c r="A8" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="26"/>
-      <c r="C8" s="26"/>
-      <c r="D8" s="27"/>
+      <c r="B8" s="27"/>
+      <c r="C8" s="27"/>
+      <c r="D8" s="28"/>
     </row>
     <row r="9" spans="1:6" ht="32.25" customHeight="1">
       <c r="A9" s="14"/>
